--- a/AAII_Financials/Quarterly/KAYS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KAYS_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>KAYS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,88 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
       </c>
       <c r="F8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G8" s="3">
         <v>300</v>
@@ -767,16 +770,19 @@
         <v>300</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,19 +825,22 @@
       <c r="P9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>200</v>
@@ -855,16 +864,19 @@
         <v>200</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -984,37 +1003,40 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-1100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1100</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
-        <v>100</v>
-      </c>
       <c r="N14" s="3">
         <v>100</v>
       </c>
       <c r="O14" s="3">
+        <v>100</v>
+      </c>
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
-      </c>
-      <c r="E17" s="3">
-        <v>600</v>
       </c>
       <c r="F17" s="3">
         <v>600</v>
       </c>
       <c r="G17" s="3">
+        <v>600</v>
+      </c>
+      <c r="H17" s="3">
         <v>-300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1210,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>14800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-16100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-18300</v>
       </c>
-      <c r="P20" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E21" s="3">
         <v>1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>13500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-16700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-18500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1281,13 +1320,13 @@
         <v>500</v>
       </c>
       <c r="G22" s="3">
+        <v>500</v>
+      </c>
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>700</v>
       </c>
       <c r="J22" s="3">
         <v>700</v>
@@ -1299,63 +1338,69 @@
         <v>700</v>
       </c>
       <c r="M22" s="3">
+        <v>700</v>
+      </c>
+      <c r="N22" s="3">
         <v>1300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>12700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-17400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-19200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-17400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-19200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-17300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-18900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-14800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>16100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>18300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-17300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-18900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-17300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-18900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,16 +2052,17 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -1985,13 +2071,13 @@
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
-      </c>
-      <c r="J41" s="3">
-        <v>300</v>
       </c>
       <c r="K41" s="3">
         <v>300</v>
@@ -2000,19 +2086,22 @@
         <v>300</v>
       </c>
       <c r="M41" s="3">
+        <v>300</v>
+      </c>
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2144,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2129,7 +2224,7 @@
         <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
         <v>200</v>
@@ -2138,13 +2233,16 @@
         <v>200</v>
       </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,52 +2285,58 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
-      </c>
-      <c r="J46" s="3">
-        <v>400</v>
       </c>
       <c r="K46" s="3">
         <v>400</v>
       </c>
       <c r="L46" s="3">
+        <v>400</v>
+      </c>
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,52 +2379,58 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>900</v>
       </c>
       <c r="K48" s="3">
         <v>900</v>
       </c>
       <c r="L48" s="3">
+        <v>900</v>
+      </c>
+      <c r="M48" s="3">
         <v>1400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>300</v>
-      </c>
-      <c r="O48" s="3">
-        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2475,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
@@ -2484,19 +2603,22 @@
         <v>100</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2661,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2548,43 +2673,46 @@
         <v>2700</v>
       </c>
       <c r="E54" s="3">
-        <v>3100</v>
+        <v>2700</v>
       </c>
       <c r="F54" s="3">
         <v>3100</v>
       </c>
       <c r="G54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H54" s="3">
         <v>2600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1300</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1400</v>
       </c>
       <c r="K54" s="3">
         <v>1400</v>
       </c>
       <c r="L54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M54" s="3">
         <v>1900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,87 +2748,91 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="E57" s="3">
         <v>700</v>
       </c>
       <c r="F57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G57" s="3">
         <v>600</v>
       </c>
       <c r="H57" s="3">
+        <v>600</v>
+      </c>
+      <c r="I57" s="3">
         <v>500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1400</v>
       </c>
       <c r="J57" s="3">
         <v>1400</v>
       </c>
       <c r="K57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>500</v>
       </c>
       <c r="P57" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
-      </c>
-      <c r="E58" s="3">
-        <v>300</v>
       </c>
       <c r="F58" s="3">
         <v>300</v>
       </c>
       <c r="G58" s="3">
+        <v>300</v>
+      </c>
+      <c r="H58" s="3">
         <v>2900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1100</v>
       </c>
       <c r="M58" s="3">
         <v>1100</v>
       </c>
       <c r="N58" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="O58" s="3">
         <v>700</v>
@@ -2707,140 +2840,152 @@
       <c r="P58" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E59" s="3">
         <v>10400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>20400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E60" s="3">
         <v>11400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>17300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>23900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2848,43 +2993,46 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
+        <v>100</v>
+      </c>
+      <c r="F62" s="3">
         <v>400</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3">
         <v>8400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E66" s="3">
         <v>16000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>24900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>20300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-31000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-31800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-35700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-39900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-32800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-33400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-32000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-44700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-30400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-26800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-32800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-29800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-13300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-14100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-18000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-22300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-14300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-20200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-18800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-31600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-16300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-13000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-19000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-20400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>12800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-17300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-18900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3649,7 +3847,7 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,13 +4105,16 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
@@ -3907,37 +4123,40 @@
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3975,31 +4195,34 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4107,31 +4336,34 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>200</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>900</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KAYS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KAYS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>KAYS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -746,13 +754,13 @@
         <v>200</v>
       </c>
       <c r="F8" s="3">
+        <v>300</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
-        <v>300</v>
-      </c>
       <c r="H8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I8" s="3">
         <v>300</v>
@@ -773,16 +781,22 @@
         <v>300</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P8" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -790,7 +804,7 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
@@ -828,8 +842,14 @@
       <c r="Q9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>100</v>
+      </c>
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -837,16 +857,16 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>200</v>
@@ -867,16 +887,22 @@
         <v>200</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,13 +1022,19 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1006,37 +1046,43 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-1100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
-        <v>100</v>
-      </c>
-      <c r="O14" s="3">
-        <v>100</v>
-      </c>
       <c r="P14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>100</v>
+      </c>
+      <c r="R14" s="3">
         <v>-100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>-300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-400</v>
       </c>
       <c r="G18" s="3">
         <v>-300</v>
       </c>
       <c r="H18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
         <v>600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,110 +1277,124 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>4700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>4900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-7000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>3300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>14800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-16100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>5100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-18300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>4400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>4700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-6300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>13500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-16700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>4100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-18500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>500</v>
@@ -1323,16 +1403,16 @@
         <v>500</v>
       </c>
       <c r="H22" s="3">
+        <v>500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>500</v>
+      </c>
+      <c r="J22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>700</v>
-      </c>
-      <c r="K22" s="3">
-        <v>700</v>
       </c>
       <c r="L22" s="3">
         <v>700</v>
@@ -1341,66 +1421,78 @@
         <v>700</v>
       </c>
       <c r="N22" s="3">
+        <v>700</v>
+      </c>
+      <c r="O22" s="3">
+        <v>700</v>
+      </c>
+      <c r="P22" s="3">
         <v>1300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>3800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>4100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-7200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>12700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-17400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-19200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>3800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>4100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-7200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>12700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-17400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-19200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>3900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>4200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-7100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>12800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-17300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>3000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-4700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-4900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>7000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-3300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-14800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>16100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-5100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>18300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>3900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>4200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-7100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>12800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-17300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>3000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>3900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>4200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-7100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>12800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-17300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>3000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2225,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2062,46 +2236,52 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>300</v>
       </c>
       <c r="L41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M41" s="3">
         <v>300</v>
       </c>
       <c r="N41" s="3">
+        <v>300</v>
+      </c>
+      <c r="O41" s="3">
+        <v>300</v>
+      </c>
+      <c r="P41" s="3">
         <v>1100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2227,22 +2419,28 @@
         <v>100</v>
       </c>
       <c r="M44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>200</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="R44" s="3">
+        <v>100</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2288,55 +2486,67 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
       <c r="F46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>300</v>
       </c>
       <c r="I46" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>300</v>
       </c>
       <c r="K46" s="3">
+        <v>500</v>
+      </c>
+      <c r="L46" s="3">
+        <v>300</v>
+      </c>
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,55 +2592,67 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F48" s="3">
         <v>2400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2597,28 +2837,34 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
       </c>
       <c r="N52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>100</v>
+      </c>
+      <c r="S52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,8 +2910,14 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2673,46 +2925,52 @@
         <v>2700</v>
       </c>
       <c r="E54" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F54" s="3">
         <v>2700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H54" s="3">
         <v>3100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,60 +3009,68 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
         <v>400</v>
@@ -2811,228 +3079,258 @@
         <v>300</v>
       </c>
       <c r="G58" s="3">
+        <v>400</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
+        <v>300</v>
+      </c>
+      <c r="J58" s="3">
         <v>2900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>700</v>
-      </c>
-      <c r="P58" s="3">
-        <v>700</v>
       </c>
       <c r="Q58" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>700</v>
+      </c>
+      <c r="S58" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F59" s="3">
         <v>8600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>10400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>11700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>16400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>20400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>5000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>7800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>5700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>17600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>7200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>8600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E60" s="3">
         <v>10000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G60" s="3">
         <v>11400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>12700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>17300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>23900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>8000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>11500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>19300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>8300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>9800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F61" s="3">
         <v>6000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>5700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>5300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>5000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3">
+        <v>100</v>
+      </c>
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>8400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>9600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>10800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>13000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>8400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>9000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>12700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>10900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F66" s="3">
         <v>14800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>16000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>17200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>21100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>24900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>17200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>21600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>20300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>33000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>18200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>14700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>20800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>21100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-32100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-31000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-31800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-35700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-39900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-32800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-33400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-32000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-44700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-30400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-26800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-32800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-29800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-12200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-13300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-14100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-18000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-22300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-14300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-20200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-18800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-31600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-16300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-13000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-19000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-20400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>3900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>4200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-7100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>12800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-17300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>3000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3850,10 +4248,10 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4536,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4117,46 +4551,52 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
       </c>
       <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-500</v>
       </c>
       <c r="M89" s="3">
         <v>-400</v>
       </c>
       <c r="N89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P89" s="3">
         <v>-1300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,16 +4614,18 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4198,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4207,22 +4649,28 @@
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
       <c r="O91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4339,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4348,22 +4808,28 @@
         <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,13 +5055,19 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
@@ -4584,40 +5076,46 @@
         <v>200</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
+        <v>200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +5161,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>900</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KAYS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KAYS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>KAYS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,19 +755,19 @@
         <v>300</v>
       </c>
       <c r="E8" s="3">
+        <v>300</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
-      </c>
-      <c r="G8" s="3">
-        <v>200</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
       </c>
       <c r="I8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J8" s="3">
         <v>300</v>
@@ -787,16 +791,19 @@
         <v>300</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -804,10 +811,10 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
@@ -848,8 +855,11 @@
       <c r="S9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -863,13 +873,13 @@
         <v>200</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
@@ -893,16 +903,19 @@
         <v>200</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,16 +1045,19 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1052,37 +1072,40 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1100</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
-        <v>100</v>
-      </c>
       <c r="Q14" s="3">
         <v>100</v>
       </c>
       <c r="R14" s="3">
+        <v>100</v>
+      </c>
+      <c r="S14" s="3">
         <v>-100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>600</v>
       </c>
       <c r="I17" s="3">
         <v>600</v>
       </c>
       <c r="J17" s="3">
+        <v>600</v>
+      </c>
+      <c r="K17" s="3">
         <v>-300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>14800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-16100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-18300</v>
       </c>
-      <c r="S20" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>13500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-16700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-18500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,10 +1434,10 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
-      </c>
-      <c r="F22" s="3">
-        <v>500</v>
       </c>
       <c r="G22" s="3">
         <v>500</v>
@@ -1409,13 +1449,13 @@
         <v>500</v>
       </c>
       <c r="J22" s="3">
+        <v>500</v>
+      </c>
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>700</v>
       </c>
       <c r="M22" s="3">
         <v>700</v>
@@ -1427,72 +1467,78 @@
         <v>700</v>
       </c>
       <c r="P22" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q22" s="3">
         <v>1300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-17400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-19200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-17400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-19200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-17300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-18900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
-        <v>100</v>
-      </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-14800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>16100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>18300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-17300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-18900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-17300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-18900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2242,10 +2329,10 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
@@ -2254,13 +2341,13 @@
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
-      </c>
-      <c r="M41" s="3">
-        <v>300</v>
       </c>
       <c r="N41" s="3">
         <v>300</v>
@@ -2269,19 +2356,22 @@
         <v>300</v>
       </c>
       <c r="P41" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2425,7 +2521,7 @@
         <v>100</v>
       </c>
       <c r="O44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>200</v>
@@ -2434,13 +2530,16 @@
         <v>200</v>
       </c>
       <c r="R44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2501,52 +2603,55 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
-      </c>
-      <c r="M46" s="3">
-        <v>400</v>
       </c>
       <c r="N46" s="3">
         <v>400</v>
       </c>
       <c r="O46" s="3">
+        <v>400</v>
+      </c>
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,61 +2703,67 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>900</v>
       </c>
       <c r="N48" s="3">
         <v>900</v>
       </c>
       <c r="O48" s="3">
+        <v>900</v>
+      </c>
+      <c r="P48" s="3">
         <v>1400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>300</v>
-      </c>
-      <c r="R48" s="3">
-        <v>200</v>
       </c>
       <c r="S48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2843,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
@@ -2852,19 +2972,22 @@
         <v>100</v>
       </c>
       <c r="P52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2800</v>
-      </c>
-      <c r="F54" s="3">
-        <v>2700</v>
       </c>
       <c r="G54" s="3">
         <v>2700</v>
       </c>
       <c r="H54" s="3">
-        <v>3100</v>
+        <v>2700</v>
       </c>
       <c r="I54" s="3">
         <v>3100</v>
       </c>
       <c r="J54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K54" s="3">
         <v>2600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1300</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1400</v>
       </c>
       <c r="N54" s="3">
         <v>1400</v>
       </c>
       <c r="O54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P54" s="3">
         <v>1900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3020,52 +3151,55 @@
         <v>1400</v>
       </c>
       <c r="E57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>700</v>
       </c>
       <c r="H57" s="3">
         <v>700</v>
       </c>
       <c r="I57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J57" s="3">
         <v>600</v>
       </c>
       <c r="K57" s="3">
+        <v>600</v>
+      </c>
+      <c r="L57" s="3">
         <v>500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1400</v>
       </c>
       <c r="M57" s="3">
         <v>1400</v>
       </c>
       <c r="N57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
-      </c>
-      <c r="R57" s="3">
-        <v>500</v>
       </c>
       <c r="S57" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3076,40 +3210,40 @@
         <v>400</v>
       </c>
       <c r="F58" s="3">
+        <v>400</v>
+      </c>
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>300</v>
       </c>
       <c r="I58" s="3">
         <v>300</v>
       </c>
       <c r="J58" s="3">
+        <v>300</v>
+      </c>
+      <c r="K58" s="3">
         <v>2900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1200</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1100</v>
       </c>
       <c r="P58" s="3">
         <v>1100</v>
       </c>
       <c r="Q58" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="R58" s="3">
         <v>700</v>
@@ -3117,114 +3251,123 @@
       <c r="S58" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E59" s="3">
         <v>9600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>16400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>20400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E60" s="3">
         <v>11400</v>
-      </c>
-      <c r="E60" s="3">
-        <v>10000</v>
       </c>
       <c r="F60" s="3">
         <v>10000</v>
       </c>
       <c r="G60" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H60" s="3">
         <v>11400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>17300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>23900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3235,49 +3378,52 @@
         <v>6600</v>
       </c>
       <c r="F61" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G61" s="3">
         <v>6000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3285,52 +3431,55 @@
         <v>300</v>
       </c>
       <c r="E62" s="3">
+        <v>300</v>
+      </c>
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
-        <v>100</v>
-      </c>
       <c r="G62" s="3">
         <v>100</v>
       </c>
       <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
         <v>400</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3">
         <v>8400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>12700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E66" s="3">
         <v>16900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>24900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>33000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>21100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-34200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-32800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-32100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-31000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-31800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-35700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-39900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-32800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-33400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-32000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-44700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-30400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-26800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-32800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-29800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-14200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-12800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-12200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-13300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-14100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-18000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-22300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-14300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-20200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-18800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-31600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-16300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-19000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-20400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-17300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-18900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4254,7 +4453,7 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4557,7 +4774,7 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
@@ -4566,37 +4783,40 @@
         <v>-200</v>
       </c>
       <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4627,8 +4848,8 @@
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4646,31 +4867,34 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,13 +5002,16 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4805,31 +5035,34 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-100</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
       </c>
       <c r="R94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5073,49 +5319,52 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>200</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5179,45 +5431,48 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>900</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KAYS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KAYS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>KAYS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,107 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>300</v>
       </c>
       <c r="F8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G8" s="3">
         <v>300</v>
@@ -767,13 +774,13 @@
         <v>200</v>
       </c>
       <c r="I8" s="3">
+        <v>300</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
-        <v>300</v>
-      </c>
       <c r="K8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L8" s="3">
         <v>300</v>
@@ -794,16 +801,22 @@
         <v>300</v>
       </c>
       <c r="R8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S8" s="3">
+        <v>300</v>
+      </c>
+      <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -814,13 +827,13 @@
         <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
@@ -858,13 +871,19 @@
       <c r="T9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>200</v>
@@ -876,16 +895,16 @@
         <v>200</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>200</v>
@@ -906,16 +925,22 @@
         <v>200</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,23 +1081,29 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1075,37 +1114,43 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-1100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>1100</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
-        <v>100</v>
-      </c>
-      <c r="R14" s="3">
-        <v>100</v>
-      </c>
       <c r="S14" s="3">
+        <v>100</v>
+      </c>
+      <c r="T14" s="3">
+        <v>100</v>
+      </c>
+      <c r="U14" s="3">
         <v>-100</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>-300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-400</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
       </c>
       <c r="K18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M18" s="3">
         <v>600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,137 +1378,151 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-12400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>4700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>4900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-7000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>3300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>14800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-16100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>5100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-1800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-18300</v>
       </c>
-      <c r="T20" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-13100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>4400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>4700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-6300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>13500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-16700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>4100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-2500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-18500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
       </c>
       <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>200</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>500</v>
       </c>
       <c r="I22" s="3">
         <v>500</v>
@@ -1452,16 +1531,16 @@
         <v>500</v>
       </c>
       <c r="K22" s="3">
+        <v>500</v>
+      </c>
+      <c r="L22" s="3">
+        <v>500</v>
+      </c>
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>700</v>
-      </c>
-      <c r="N22" s="3">
-        <v>700</v>
       </c>
       <c r="O22" s="3">
         <v>700</v>
@@ -1470,75 +1549,87 @@
         <v>700</v>
       </c>
       <c r="Q22" s="3">
+        <v>700</v>
+      </c>
+      <c r="R22" s="3">
+        <v>700</v>
+      </c>
+      <c r="S22" s="3">
         <v>1300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-13400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>3800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>4100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-7200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>12700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-17400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-3100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-19200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-13400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>3800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>4100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-7200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>12700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-17400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>2800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-3100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-19200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-13400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>4200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-7100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>12800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-17300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>3000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-3000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-18900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2118,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F32" s="3">
         <v>12400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
-        <v>100</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-4700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-4900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>7000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-3300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-14800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>16100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-5100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>1800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>18300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-13400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>4200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-7100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>12800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-17300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>3000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-3000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-18900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-13400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>4200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-7100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>12800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-17300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>3000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-3000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-18900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2485,10 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2323,7 +2496,7 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -2332,46 +2505,52 @@
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>300</v>
       </c>
       <c r="O41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P41" s="3">
         <v>300</v>
       </c>
       <c r="Q41" s="3">
+        <v>300</v>
+      </c>
+      <c r="R41" s="3">
+        <v>300</v>
+      </c>
+      <c r="S41" s="3">
         <v>1100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2667,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2491,7 +2682,7 @@
         <v>100</v>
       </c>
       <c r="E44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
@@ -2524,22 +2715,28 @@
         <v>100</v>
       </c>
       <c r="P44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R44" s="3">
         <v>200</v>
       </c>
       <c r="S44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U44" s="3">
+        <v>100</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2791,14 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2606,52 +2809,58 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>300</v>
-      </c>
       <c r="J46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>300</v>
       </c>
       <c r="L46" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>300</v>
       </c>
       <c r="N46" s="3">
+        <v>500</v>
+      </c>
+      <c r="O46" s="3">
+        <v>300</v>
+      </c>
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2661,20 +2870,20 @@
       <c r="E47" s="3">
         <v>0</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2706,64 +2915,76 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F48" s="3">
         <v>2400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2966,28 +3205,34 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>100</v>
       </c>
       <c r="Q52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T52" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>100</v>
+      </c>
+      <c r="V52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F54" s="3">
         <v>2500</v>
-      </c>
-      <c r="E54" s="3">
-        <v>2700</v>
-      </c>
-      <c r="F54" s="3">
-        <v>2800</v>
       </c>
       <c r="G54" s="3">
         <v>2700</v>
       </c>
       <c r="H54" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I54" s="3">
         <v>2700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K54" s="3">
         <v>3100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3401,72 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3213,7 +3480,7 @@
         <v>400</v>
       </c>
       <c r="G58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H58" s="3">
         <v>400</v>
@@ -3222,157 +3489,175 @@
         <v>300</v>
       </c>
       <c r="J58" s="3">
+        <v>400</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
+        <v>300</v>
+      </c>
+      <c r="M58" s="3">
         <v>2900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1100</v>
-      </c>
-      <c r="R58" s="3">
-        <v>700</v>
-      </c>
-      <c r="S58" s="3">
-        <v>700</v>
       </c>
       <c r="T58" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>700</v>
+      </c>
+      <c r="V58" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>18400</v>
+      </c>
+      <c r="F59" s="3">
         <v>22000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>9600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>8300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>8600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>10400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>11700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>16400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>20400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>5000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>7800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>5700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>17600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>4400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>7200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>8600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>20600</v>
+      </c>
+      <c r="F60" s="3">
         <v>23800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>11400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>10000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>10000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>11400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>12700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>17300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>23900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>8000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>11500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>7800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>19300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>5700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>8300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>9800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="E61" s="3">
         <v>6600</v>
@@ -3381,105 +3666,117 @@
         <v>6600</v>
       </c>
       <c r="G61" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H61" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I61" s="3">
         <v>6000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>5700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>5300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>4800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
-        <v>100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>100</v>
-      </c>
       <c r="I62" s="3">
+        <v>100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>100</v>
+      </c>
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3" t="s">
+      <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>8400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>9600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>10800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>13000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>8400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>9000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>12700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>10900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>25700</v>
+      </c>
+      <c r="F66" s="3">
         <v>29300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>16900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>15600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>14800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>16000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>17200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>21100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>24900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>17200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>21600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>20300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>33000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>18200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>14700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>20800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>21100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-49700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-47600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-34200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-32800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-32100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-31000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-31800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-35700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-39900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-32800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-33400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-32000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-44700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-30400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-26800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-32800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-29800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-26800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-14200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-12800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-12200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-13300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-14100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-18000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-22300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-14300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-20200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-18800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-31600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-16300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-13000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-19000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-20400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-13400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>4200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-7100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>12800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-17300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>3000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-3000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-18900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,16 +4818,18 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -4456,10 +4853,10 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,16 +5186,22 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -4777,46 +5210,52 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>
       </c>
       <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-500</v>
       </c>
       <c r="P89" s="3">
         <v>-400</v>
       </c>
       <c r="Q89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S89" s="3">
         <v>-1300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,19 +5276,21 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4870,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4879,22 +5320,28 @@
         <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
       <c r="R91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,19 +5458,25 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -5038,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5047,22 +5506,28 @@
         <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
       </c>
       <c r="R94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,22 +5792,28 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
@@ -5331,40 +5822,46 @@
         <v>200</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
+        <v>200</v>
+      </c>
+      <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>2200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5916,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5434,45 +5937,51 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>900</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KAYS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KAYS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>KAYS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,7 +766,7 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>300</v>
@@ -771,19 +775,19 @@
         <v>300</v>
       </c>
       <c r="H8" s="3">
+        <v>300</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>200</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
       </c>
       <c r="L8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M8" s="3">
         <v>300</v>
@@ -807,16 +811,19 @@
         <v>300</v>
       </c>
       <c r="T8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -833,10 +840,10 @@
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
@@ -877,8 +884,11 @@
       <c r="V9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -886,7 +896,7 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>200</v>
@@ -901,13 +911,13 @@
         <v>200</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
         <v>200</v>
@@ -931,16 +941,19 @@
         <v>200</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V10" s="3">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1096,16 +1116,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>100</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1120,37 +1140,40 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-1100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1100</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
-        <v>100</v>
-      </c>
       <c r="T14" s="3">
         <v>100</v>
       </c>
       <c r="U14" s="3">
+        <v>100</v>
+      </c>
+      <c r="V14" s="3">
         <v>-100</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1241,61 +1268,64 @@
         <v>500</v>
       </c>
       <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>600</v>
       </c>
       <c r="L17" s="3">
         <v>600</v>
       </c>
       <c r="M17" s="3">
+        <v>600</v>
+      </c>
+      <c r="N17" s="3">
         <v>-300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,61 +1333,64 @@
         <v>-300</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,140 +1413,147 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-12400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>14800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-16100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-18300</v>
       </c>
-      <c r="V20" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-13100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>13500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-16700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-18500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -1522,10 +1562,10 @@
         <v>200</v>
       </c>
       <c r="H22" s="3">
+        <v>200</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>500</v>
       </c>
       <c r="J22" s="3">
         <v>500</v>
@@ -1537,13 +1577,13 @@
         <v>500</v>
       </c>
       <c r="M22" s="3">
+        <v>500</v>
+      </c>
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>700</v>
       </c>
       <c r="P22" s="3">
         <v>700</v>
@@ -1555,81 +1595,87 @@
         <v>700</v>
       </c>
       <c r="S22" s="3">
+        <v>700</v>
+      </c>
+      <c r="T22" s="3">
         <v>1300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>12700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-17400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-19200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>12700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-17400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-19200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-17300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-18900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E32" s="3">
         <v>4900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>12400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
-        <v>100</v>
-      </c>
       <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>16100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>18300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>12800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-17300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-18900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>12800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-17300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-18900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2496,10 +2583,10 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
@@ -2511,10 +2598,10 @@
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
@@ -2523,13 +2610,13 @@
         <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
-      </c>
-      <c r="P41" s="3">
-        <v>300</v>
       </c>
       <c r="Q41" s="3">
         <v>300</v>
@@ -2538,19 +2625,22 @@
         <v>300</v>
       </c>
       <c r="S41" s="3">
+        <v>300</v>
+      </c>
+      <c r="T41" s="3">
         <v>1100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,19 +2766,22 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
@@ -2721,7 +2817,7 @@
         <v>100</v>
       </c>
       <c r="R44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S44" s="3">
         <v>200</v>
@@ -2730,13 +2826,16 @@
         <v>200</v>
       </c>
       <c r="U44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2815,52 +2917,55 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>200</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
-      </c>
-      <c r="P46" s="3">
-        <v>400</v>
       </c>
       <c r="Q46" s="3">
         <v>400</v>
       </c>
       <c r="R46" s="3">
+        <v>400</v>
+      </c>
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>400</v>
       </c>
-      <c r="V46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2870,8 +2975,8 @@
       <c r="E47" s="3">
         <v>0</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
+      <c r="F47" s="3">
+        <v>0</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -2885,8 +2990,8 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2933,58 +3041,61 @@
         <v>2100</v>
       </c>
       <c r="F48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G48" s="3">
         <v>2400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1000</v>
-      </c>
-      <c r="P48" s="3">
-        <v>900</v>
       </c>
       <c r="Q48" s="3">
         <v>900</v>
       </c>
       <c r="R48" s="3">
+        <v>900</v>
+      </c>
+      <c r="S48" s="3">
         <v>1400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>300</v>
-      </c>
-      <c r="U48" s="3">
-        <v>200</v>
       </c>
       <c r="V48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,13 +3286,16 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -3211,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
         <v>100</v>
@@ -3220,19 +3340,22 @@
         <v>100</v>
       </c>
       <c r="S52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
       <c r="U52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3305,58 +3431,61 @@
         <v>2300</v>
       </c>
       <c r="F54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G54" s="3">
         <v>2500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2800</v>
-      </c>
-      <c r="I54" s="3">
-        <v>2700</v>
       </c>
       <c r="J54" s="3">
         <v>2700</v>
       </c>
       <c r="K54" s="3">
-        <v>3100</v>
+        <v>2700</v>
       </c>
       <c r="L54" s="3">
         <v>3100</v>
       </c>
       <c r="M54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N54" s="3">
         <v>2600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1300</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1400</v>
       </c>
       <c r="Q54" s="3">
         <v>1400</v>
       </c>
       <c r="R54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S54" s="3">
         <v>1900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3533,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1800</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1400</v>
       </c>
       <c r="G57" s="3">
         <v>1400</v>
       </c>
       <c r="H57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>700</v>
       </c>
       <c r="K57" s="3">
         <v>700</v>
       </c>
       <c r="L57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M57" s="3">
         <v>600</v>
       </c>
       <c r="N57" s="3">
+        <v>600</v>
+      </c>
+      <c r="O57" s="3">
         <v>500</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1400</v>
       </c>
       <c r="P57" s="3">
         <v>1400</v>
       </c>
       <c r="Q57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
-      </c>
-      <c r="U57" s="3">
-        <v>500</v>
       </c>
       <c r="V57" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3486,40 +3620,40 @@
         <v>400</v>
       </c>
       <c r="I58" s="3">
+        <v>400</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
-      </c>
-      <c r="K58" s="3">
-        <v>300</v>
       </c>
       <c r="L58" s="3">
         <v>300</v>
       </c>
       <c r="M58" s="3">
+        <v>300</v>
+      </c>
+      <c r="N58" s="3">
         <v>2900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1200</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1100</v>
       </c>
       <c r="S58" s="3">
         <v>1100</v>
       </c>
       <c r="T58" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="U58" s="3">
         <v>700</v>
@@ -3527,132 +3661,141 @@
       <c r="V58" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E59" s="3">
         <v>23300</v>
       </c>
-      <c r="E59" s="3">
-        <v>18400</v>
-      </c>
       <c r="F59" s="3">
+        <v>18100</v>
+      </c>
+      <c r="G59" s="3">
         <v>22000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>20400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E60" s="3">
         <v>25700</v>
       </c>
-      <c r="E60" s="3">
-        <v>20600</v>
-      </c>
       <c r="F60" s="3">
+        <v>20300</v>
+      </c>
+      <c r="G60" s="3">
         <v>23800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>10000</v>
       </c>
       <c r="I60" s="3">
         <v>10000</v>
       </c>
       <c r="J60" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K60" s="3">
         <v>11400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>23900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3660,7 +3803,7 @@
         <v>6700</v>
       </c>
       <c r="E61" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="F61" s="3">
         <v>6600</v>
@@ -3672,49 +3815,52 @@
         <v>6600</v>
       </c>
       <c r="I61" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J61" s="3">
         <v>6000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3722,7 +3868,7 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
@@ -3731,52 +3877,55 @@
         <v>300</v>
       </c>
       <c r="H62" s="3">
+        <v>300</v>
+      </c>
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3">
-        <v>100</v>
-      </c>
       <c r="J62" s="3">
         <v>100</v>
       </c>
       <c r="K62" s="3">
+        <v>100</v>
+      </c>
+      <c r="L62" s="3">
         <v>400</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3">
         <v>8400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>12700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>10900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E66" s="3">
         <v>31200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>25700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>29300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>24900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>33000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>18200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>20800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>21100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-49700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-44200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-47600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-34200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-32800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-32100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-31000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-31800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-35700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-39900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-32800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-33400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-44700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-30400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-26800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-32800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-29800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-28900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-23400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-26800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-14200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-12800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-12200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-13300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-14100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-18000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-22300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-14300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-20200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-31600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-16300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-13000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-19000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-20400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>12800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-17300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-18900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4832,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -4859,7 +5058,7 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,19 +5406,22 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
@@ -5216,7 +5433,7 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
@@ -5225,37 +5442,40 @@
         <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5317,31 +5538,34 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-500</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-100</v>
       </c>
       <c r="T91" s="3">
         <v>-100</v>
       </c>
       <c r="U91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,22 +5691,25 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -5503,31 +5733,34 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-500</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-100</v>
       </c>
       <c r="T94" s="3">
         <v>-100</v>
       </c>
       <c r="U94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,19 +6041,22 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
@@ -5819,49 +6065,52 @@
         <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>200</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5943,45 +6195,48 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>900</v>
       </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
       <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KAYS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KAYS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>KAYS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -769,7 +773,7 @@
         <v>200</v>
       </c>
       <c r="F8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G8" s="3">
         <v>300</v>
@@ -778,19 +782,19 @@
         <v>300</v>
       </c>
       <c r="I8" s="3">
+        <v>300</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
-      </c>
-      <c r="K8" s="3">
-        <v>200</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
       </c>
       <c r="M8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N8" s="3">
         <v>300</v>
@@ -814,16 +818,19 @@
         <v>300</v>
       </c>
       <c r="U8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="V8" s="3">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
         <v>200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -843,10 +850,10 @@
         <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
@@ -887,8 +894,11 @@
       <c r="W9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -899,7 +909,7 @@
         <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>200</v>
@@ -914,13 +924,13 @@
         <v>200</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>200</v>
@@ -944,16 +954,19 @@
         <v>200</v>
       </c>
       <c r="U10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W10" s="3">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,28 +1124,31 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1143,37 +1163,40 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-1100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1100</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
-        <v>100</v>
-      </c>
       <c r="U14" s="3">
         <v>100</v>
       </c>
       <c r="V14" s="3">
+        <v>100</v>
+      </c>
+      <c r="W14" s="3">
         <v>-100</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E17" s="3">
         <v>500</v>
       </c>
       <c r="F17" s="3">
+        <v>500</v>
+      </c>
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>600</v>
       </c>
       <c r="M17" s="3">
         <v>600</v>
       </c>
       <c r="N17" s="3">
+        <v>600</v>
+      </c>
+      <c r="O17" s="3">
         <v>-300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E18" s="3">
         <v>-300</v>
       </c>
       <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E20" s="3">
         <v>9700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-12400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>14800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-16100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-18300</v>
       </c>
-      <c r="W20" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E21" s="3">
         <v>9400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-13100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>13500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-16700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-18500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1553,10 +1593,10 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
@@ -1565,10 +1605,10 @@
         <v>200</v>
       </c>
       <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>500</v>
       </c>
       <c r="K22" s="3">
         <v>500</v>
@@ -1580,13 +1620,13 @@
         <v>500</v>
       </c>
       <c r="N22" s="3">
+        <v>500</v>
+      </c>
+      <c r="O22" s="3">
         <v>800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>700</v>
       </c>
       <c r="Q22" s="3">
         <v>700</v>
@@ -1598,84 +1638,90 @@
         <v>700</v>
       </c>
       <c r="T22" s="3">
+        <v>700</v>
+      </c>
+      <c r="U22" s="3">
         <v>1300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E23" s="3">
         <v>9100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>12700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-17400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-19200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E26" s="3">
         <v>9100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-13400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-17400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-19200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E27" s="3">
         <v>9200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>12800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-17300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-18900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-9700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>12400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
-        <v>100</v>
-      </c>
       <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-14800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>16100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>18300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E33" s="3">
         <v>9200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>12800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-17300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-18900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E35" s="3">
         <v>9200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>12800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-17300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-18900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2586,10 +2673,10 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
@@ -2601,10 +2688,10 @@
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
@@ -2613,13 +2700,13 @@
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>300</v>
       </c>
       <c r="R41" s="3">
         <v>300</v>
@@ -2628,19 +2715,22 @@
         <v>300</v>
       </c>
       <c r="T41" s="3">
+        <v>300</v>
+      </c>
+      <c r="U41" s="3">
         <v>1100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>300</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2778,13 +2874,13 @@
         <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
         <v>100</v>
@@ -2820,7 +2916,7 @@
         <v>100</v>
       </c>
       <c r="S44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T44" s="3">
         <v>200</v>
@@ -2829,13 +2925,16 @@
         <v>200</v>
       </c>
       <c r="V44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2920,52 +3022,55 @@
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>400</v>
       </c>
       <c r="R46" s="3">
         <v>400</v>
       </c>
       <c r="S46" s="3">
+        <v>400</v>
+      </c>
+      <c r="T46" s="3">
         <v>500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>400</v>
       </c>
-      <c r="W46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2978,8 +3083,8 @@
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -2993,8 +3098,8 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -3029,73 +3134,79 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E48" s="3">
         <v>2100</v>
       </c>
       <c r="F48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G48" s="3">
         <v>4800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>900</v>
       </c>
       <c r="R48" s="3">
         <v>900</v>
       </c>
       <c r="S48" s="3">
+        <v>900</v>
+      </c>
+      <c r="T48" s="3">
         <v>1400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>300</v>
-      </c>
-      <c r="V48" s="3">
-        <v>200</v>
       </c>
       <c r="W48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3298,7 +3418,7 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -3334,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R52" s="3">
         <v>100</v>
@@ -3343,19 +3463,22 @@
         <v>100</v>
       </c>
       <c r="T52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
       </c>
       <c r="V52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,13 +3542,16 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E54" s="3">
         <v>2300</v>
@@ -3434,58 +3560,61 @@
         <v>2300</v>
       </c>
       <c r="G54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H54" s="3">
         <v>2500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2800</v>
-      </c>
-      <c r="J54" s="3">
-        <v>2700</v>
       </c>
       <c r="K54" s="3">
         <v>2700</v>
       </c>
       <c r="L54" s="3">
-        <v>3100</v>
+        <v>2700</v>
       </c>
       <c r="M54" s="3">
         <v>3100</v>
       </c>
       <c r="N54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O54" s="3">
         <v>2600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1400</v>
       </c>
       <c r="R54" s="3">
         <v>1400</v>
       </c>
       <c r="S54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T54" s="3">
         <v>1900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,78 +3664,82 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1400</v>
       </c>
       <c r="H57" s="3">
         <v>1400</v>
       </c>
       <c r="I57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>700</v>
       </c>
       <c r="L57" s="3">
         <v>700</v>
       </c>
       <c r="M57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N57" s="3">
         <v>600</v>
       </c>
       <c r="O57" s="3">
+        <v>600</v>
+      </c>
+      <c r="P57" s="3">
         <v>500</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1400</v>
       </c>
       <c r="Q57" s="3">
         <v>1400</v>
       </c>
       <c r="R57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>400</v>
-      </c>
-      <c r="V57" s="3">
-        <v>500</v>
       </c>
       <c r="W57" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
         <v>400</v>
@@ -3623,40 +3757,40 @@
         <v>400</v>
       </c>
       <c r="J58" s="3">
+        <v>400</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
-      </c>
-      <c r="L58" s="3">
-        <v>300</v>
       </c>
       <c r="M58" s="3">
         <v>300</v>
       </c>
       <c r="N58" s="3">
+        <v>300</v>
+      </c>
+      <c r="O58" s="3">
         <v>2900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1200</v>
-      </c>
-      <c r="S58" s="3">
-        <v>1100</v>
       </c>
       <c r="T58" s="3">
         <v>1100</v>
       </c>
       <c r="U58" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="V58" s="3">
         <v>700</v>
@@ -3664,149 +3798,158 @@
       <c r="W58" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E59" s="3">
         <v>13700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>23300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>22000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>20400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E60" s="3">
         <v>16100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>25700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>20300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>23800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>10000</v>
       </c>
       <c r="J60" s="3">
         <v>10000</v>
       </c>
       <c r="K60" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L60" s="3">
         <v>11400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>23900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="E61" s="3">
         <v>6700</v>
       </c>
       <c r="F61" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="G61" s="3">
         <v>6600</v>
@@ -3818,49 +3961,52 @@
         <v>6600</v>
       </c>
       <c r="J61" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K61" s="3">
         <v>6000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3871,7 +4017,7 @@
         <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
@@ -3880,52 +4026,55 @@
         <v>300</v>
       </c>
       <c r="I62" s="3">
+        <v>300</v>
+      </c>
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3">
-        <v>100</v>
-      </c>
       <c r="K62" s="3">
         <v>100</v>
       </c>
       <c r="L62" s="3">
+        <v>100</v>
+      </c>
+      <c r="M62" s="3">
         <v>400</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3">
         <v>8400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>12700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>10900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E66" s="3">
         <v>21500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>31200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>25700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>29300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>24900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>21600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>33000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>18200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>20800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>21100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-40600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-49700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-44200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-47600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-34200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-32800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-32100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-31000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-31800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-35700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-39900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-32800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-33400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-32000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-44700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-30400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-26800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-32800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-29800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-19200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-28900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-23400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-26800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-14200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-12800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-12200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-13300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-14100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-18000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-22300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-14300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-18800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-31600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-16300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-13000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-19000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-20400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E81" s="3">
         <v>9200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>12800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-17300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-18900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5034,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -5061,7 +5260,7 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,22 +5623,25 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -5436,7 +5653,7 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
@@ -5445,37 +5662,40 @@
         <v>-200</v>
       </c>
       <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5541,31 +5762,34 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-500</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-100</v>
       </c>
       <c r="U91" s="3">
         <v>-100</v>
       </c>
       <c r="V91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5705,14 +5935,14 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -5736,31 +5966,34 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-500</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-100</v>
       </c>
       <c r="U94" s="3">
         <v>-100</v>
       </c>
       <c r="V94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,22 +6287,25 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
@@ -6068,72 +6314,75 @@
         <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>200</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6198,45 +6450,48 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>-100</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>900</v>
       </c>
-      <c r="V102" s="3">
-        <v>100</v>
-      </c>
       <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KAYS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KAYS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>KAYS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -776,7 +779,7 @@
         <v>200</v>
       </c>
       <c r="G8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H8" s="3">
         <v>300</v>
@@ -785,19 +788,19 @@
         <v>300</v>
       </c>
       <c r="J8" s="3">
+        <v>300</v>
+      </c>
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
-      </c>
-      <c r="L8" s="3">
-        <v>200</v>
       </c>
       <c r="M8" s="3">
         <v>200</v>
       </c>
       <c r="N8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O8" s="3">
         <v>300</v>
@@ -821,16 +824,19 @@
         <v>300</v>
       </c>
       <c r="V8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="W8" s="3">
+        <v>100</v>
+      </c>
+      <c r="X8" s="3">
         <v>200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -853,10 +859,10 @@
         <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
@@ -897,8 +903,11 @@
       <c r="X9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -912,7 +921,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
         <v>200</v>
@@ -927,13 +936,13 @@
         <v>200</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M10" s="3">
         <v>100</v>
       </c>
       <c r="N10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
         <v>200</v>
@@ -957,16 +966,19 @@
         <v>200</v>
       </c>
       <c r="V10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,31 +1143,34 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>100</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1166,37 +1185,40 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-1100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1100</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
-        <v>100</v>
-      </c>
       <c r="V14" s="3">
         <v>100</v>
       </c>
       <c r="W14" s="3">
+        <v>100</v>
+      </c>
+      <c r="X14" s="3">
         <v>-100</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1311,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1295,67 +1321,70 @@
         <v>600</v>
       </c>
       <c r="E17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F17" s="3">
         <v>500</v>
       </c>
       <c r="G17" s="3">
+        <v>500</v>
+      </c>
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>600</v>
       </c>
       <c r="N17" s="3">
         <v>600</v>
       </c>
       <c r="O17" s="3">
+        <v>600</v>
+      </c>
+      <c r="P17" s="3">
         <v>-300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,67 +1392,70 @@
         <v>-400</v>
       </c>
       <c r="E18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F18" s="3">
         <v>-300</v>
       </c>
       <c r="G18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E20" s="3">
         <v>4600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>9700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-12400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>14800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-16100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-18300</v>
       </c>
-      <c r="X20" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E21" s="3">
         <v>4200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-13100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>13500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-16700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-18500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1596,10 +1635,10 @@
         <v>200</v>
       </c>
       <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
@@ -1608,10 +1647,10 @@
         <v>200</v>
       </c>
       <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
-      </c>
-      <c r="K22" s="3">
-        <v>500</v>
       </c>
       <c r="L22" s="3">
         <v>500</v>
@@ -1623,13 +1662,13 @@
         <v>500</v>
       </c>
       <c r="O22" s="3">
+        <v>500</v>
+      </c>
+      <c r="P22" s="3">
         <v>800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>700</v>
       </c>
       <c r="R22" s="3">
         <v>700</v>
@@ -1641,92 +1680,98 @@
         <v>700</v>
       </c>
       <c r="U22" s="3">
+        <v>700</v>
+      </c>
+      <c r="V22" s="3">
         <v>1300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E23" s="3">
         <v>3900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>12700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-17400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-19200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1737,14 +1782,14 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E26" s="3">
         <v>3900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-13400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>12700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-17400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-19200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E27" s="3">
         <v>4000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>12800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-17300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-18900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-9700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>12400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
-        <v>100</v>
-      </c>
       <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-14800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>16100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>18300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>4000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>12800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-17300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-18900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>4000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>12800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-17300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-18900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,13 +2746,14 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2676,10 +2762,10 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
@@ -2691,10 +2777,10 @@
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
@@ -2703,13 +2789,13 @@
         <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
-      </c>
-      <c r="R41" s="3">
-        <v>300</v>
       </c>
       <c r="S41" s="3">
         <v>300</v>
@@ -2718,19 +2804,22 @@
         <v>300</v>
       </c>
       <c r="U41" s="3">
+        <v>300</v>
+      </c>
+      <c r="V41" s="3">
         <v>1100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>300</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,25 +2957,28 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
@@ -2919,7 +3014,7 @@
         <v>100</v>
       </c>
       <c r="T44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U44" s="3">
         <v>200</v>
@@ -2928,13 +3023,16 @@
         <v>200</v>
       </c>
       <c r="W44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,13 +3099,16 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -3025,52 +3126,55 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
-      </c>
-      <c r="R46" s="3">
-        <v>400</v>
       </c>
       <c r="S46" s="3">
         <v>400</v>
       </c>
       <c r="T46" s="3">
+        <v>400</v>
+      </c>
+      <c r="U46" s="3">
         <v>500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>400</v>
       </c>
-      <c r="X46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3086,8 +3190,8 @@
       <c r="G47" s="3">
         <v>0</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -3101,8 +3205,8 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -3137,76 +3241,82 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
         <v>2000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2100</v>
       </c>
       <c r="F48" s="3">
         <v>2100</v>
       </c>
       <c r="G48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H48" s="3">
         <v>4800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1000</v>
-      </c>
-      <c r="R48" s="3">
-        <v>900</v>
       </c>
       <c r="S48" s="3">
         <v>900</v>
       </c>
       <c r="T48" s="3">
+        <v>900</v>
+      </c>
+      <c r="U48" s="3">
         <v>1400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>300</v>
-      </c>
-      <c r="W48" s="3">
-        <v>200</v>
       </c>
       <c r="X48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3421,7 +3540,7 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -3457,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S52" s="3">
         <v>100</v>
@@ -3466,19 +3585,22 @@
         <v>100</v>
       </c>
       <c r="U52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
       </c>
       <c r="W52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,16 +3667,19 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2200</v>
-      </c>
-      <c r="E54" s="3">
-        <v>2300</v>
       </c>
       <c r="F54" s="3">
         <v>2300</v>
@@ -3563,58 +3688,61 @@
         <v>2300</v>
       </c>
       <c r="H54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I54" s="3">
         <v>2500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2800</v>
-      </c>
-      <c r="K54" s="3">
-        <v>2700</v>
       </c>
       <c r="L54" s="3">
         <v>2700</v>
       </c>
       <c r="M54" s="3">
-        <v>3100</v>
+        <v>2700</v>
       </c>
       <c r="N54" s="3">
         <v>3100</v>
       </c>
       <c r="O54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P54" s="3">
         <v>2600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1300</v>
-      </c>
-      <c r="R54" s="3">
-        <v>1400</v>
       </c>
       <c r="S54" s="3">
         <v>1400</v>
       </c>
       <c r="T54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U54" s="3">
         <v>1900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,84 +3794,88 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1400</v>
       </c>
       <c r="I57" s="3">
         <v>1400</v>
       </c>
       <c r="J57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>700</v>
       </c>
       <c r="M57" s="3">
         <v>700</v>
       </c>
       <c r="N57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O57" s="3">
         <v>600</v>
       </c>
       <c r="P57" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q57" s="3">
         <v>500</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1400</v>
       </c>
       <c r="R57" s="3">
         <v>1400</v>
       </c>
       <c r="S57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>400</v>
-      </c>
-      <c r="W57" s="3">
-        <v>500</v>
       </c>
       <c r="X57" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
-      </c>
-      <c r="E58" s="3">
-        <v>400</v>
       </c>
       <c r="F58" s="3">
         <v>400</v>
@@ -3760,40 +3893,40 @@
         <v>400</v>
       </c>
       <c r="K58" s="3">
+        <v>400</v>
+      </c>
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
-      </c>
-      <c r="M58" s="3">
-        <v>300</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
       </c>
       <c r="O58" s="3">
+        <v>300</v>
+      </c>
+      <c r="P58" s="3">
         <v>2900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1200</v>
-      </c>
-      <c r="T58" s="3">
-        <v>1100</v>
       </c>
       <c r="U58" s="3">
         <v>1100</v>
       </c>
       <c r="V58" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="W58" s="3">
         <v>700</v>
@@ -3801,158 +3934,167 @@
       <c r="X58" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E59" s="3">
         <v>9200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>23300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>18100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>22000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>20400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E60" s="3">
         <v>12100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>25700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>20300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>23800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>10000</v>
       </c>
       <c r="K60" s="3">
         <v>10000</v>
       </c>
       <c r="L60" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M60" s="3">
         <v>11400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>23900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E61" s="3">
         <v>6800</v>
-      </c>
-      <c r="E61" s="3">
-        <v>6700</v>
       </c>
       <c r="F61" s="3">
         <v>6700</v>
       </c>
       <c r="G61" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="H61" s="3">
         <v>6600</v>
@@ -3964,54 +4106,57 @@
         <v>6600</v>
       </c>
       <c r="K61" s="3">
+        <v>6600</v>
+      </c>
+      <c r="L61" s="3">
         <v>6000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
@@ -4020,7 +4165,7 @@
         <v>200</v>
       </c>
       <c r="G62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
@@ -4029,52 +4174,55 @@
         <v>300</v>
       </c>
       <c r="J62" s="3">
+        <v>300</v>
+      </c>
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3">
-        <v>100</v>
-      </c>
       <c r="L62" s="3">
         <v>100</v>
       </c>
       <c r="M62" s="3">
+        <v>100</v>
+      </c>
+      <c r="N62" s="3">
         <v>400</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3">
         <v>8400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>12700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>10900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E66" s="3">
         <v>17400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>31200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>25700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>29300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>24900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>33000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>18200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>14700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>20800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>21100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-36600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-40600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-49700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-44200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-47600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-34200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-32800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-32100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-31000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-31800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-35700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-39900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-32800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-33400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-32000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-44700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-30400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-26800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-32800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-29800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-15200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-19200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-28900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-23400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-26800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-14200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-12800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-12200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-13300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-14100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-18000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-22300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-20200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-18800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-31600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-16300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-13000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-19000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-20400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>4000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>12800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-17300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-18900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5236,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -5263,7 +5461,7 @@
         <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,25 +5839,28 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
@@ -5656,7 +5872,7 @@
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
@@ -5665,37 +5881,40 @@
         <v>-200</v>
       </c>
       <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5765,31 +5985,34 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-500</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-100</v>
       </c>
       <c r="V91" s="3">
         <v>-100</v>
       </c>
       <c r="W91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,13 +6150,16 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5938,14 +6167,14 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -5969,31 +6198,34 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-500</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-100</v>
       </c>
       <c r="V94" s="3">
         <v>-100</v>
       </c>
       <c r="W94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,25 +6532,28 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
@@ -6317,57 +6562,60 @@
         <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>200</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
+      <c r="E101" s="3">
+        <v>0</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>8</v>
@@ -6384,8 +6632,8 @@
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -6426,13 +6674,16 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -6453,45 +6704,48 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>-100</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>900</v>
       </c>
-      <c r="W102" s="3">
-        <v>100</v>
-      </c>
       <c r="X102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KAYS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KAYS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>KAYS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,115 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,16 +790,16 @@
         <v>200</v>
       </c>
       <c r="H8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J8" s="3">
         <v>300</v>
       </c>
       <c r="K8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L8" s="3">
         <v>300</v>
@@ -800,13 +808,13 @@
         <v>200</v>
       </c>
       <c r="N8" s="3">
+        <v>300</v>
+      </c>
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
-        <v>300</v>
-      </c>
       <c r="P8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="3">
         <v>300</v>
@@ -827,16 +835,22 @@
         <v>300</v>
       </c>
       <c r="W8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="X8" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="3">
         <v>200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -862,13 +876,13 @@
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
@@ -906,8 +920,14 @@
       <c r="Y9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -924,10 +944,10 @@
         <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
@@ -939,16 +959,16 @@
         <v>200</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
         <v>200</v>
@@ -969,16 +989,22 @@
         <v>200</v>
       </c>
       <c r="W10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,38 +1180,44 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
-        <v>100</v>
-      </c>
-      <c r="I14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>100</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1188,37 +1228,43 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>1100</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>200</v>
       </c>
-      <c r="V14" s="3">
-        <v>100</v>
-      </c>
-      <c r="W14" s="3">
-        <v>100</v>
-      </c>
       <c r="X14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z14" s="3">
         <v>-100</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>-300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-400</v>
       </c>
       <c r="O18" s="3">
         <v>-300</v>
       </c>
       <c r="P18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R18" s="3">
         <v>600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-1000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,150 +1547,164 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F20" s="3">
         <v>3300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>4600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>9700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-4900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>3900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-12400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>4700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>4900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>3300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>14800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-16100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>5100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-1800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-18300</v>
       </c>
-      <c r="Y20" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F21" s="3">
         <v>2900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>4200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>9400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-5200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>3400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-13100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>4400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>4700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>13500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-16700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>4100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-2500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-18500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1638,25 +1718,25 @@
         <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
       </c>
       <c r="K22" s="3">
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
+        <v>200</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>500</v>
-      </c>
-      <c r="M22" s="3">
-        <v>500</v>
       </c>
       <c r="N22" s="3">
         <v>500</v>
@@ -1665,16 +1745,16 @@
         <v>500</v>
       </c>
       <c r="P22" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>500</v>
+      </c>
+      <c r="R22" s="3">
         <v>800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>1000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>700</v>
-      </c>
-      <c r="S22" s="3">
-        <v>700</v>
       </c>
       <c r="T22" s="3">
         <v>700</v>
@@ -1683,119 +1763,131 @@
         <v>700</v>
       </c>
       <c r="V22" s="3">
+        <v>700</v>
+      </c>
+      <c r="W22" s="3">
+        <v>700</v>
+      </c>
+      <c r="X22" s="3">
         <v>1300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F23" s="3">
         <v>2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>3900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>9100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-5500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>3300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-13400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>3800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>4100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>12700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-17400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>2800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-3100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-19200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>8</v>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F26" s="3">
         <v>1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>3900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>9100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-5500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>3300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-13400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>3800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>4100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>12700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-17400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>2800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-3100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-19200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F27" s="3">
         <v>2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>4000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>9200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-5500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>3400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-13400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>3900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>4200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>12800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-17300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>3000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-3000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-18900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-4600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-9700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>4900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-3900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>12400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
-        <v>100</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-4700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-4900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>7000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-3300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-14800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>16100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-5100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>1800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>18300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F33" s="3">
         <v>2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>4000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>9200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-5500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>3400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-13400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>3900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>4200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>12800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-17300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>3000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-3000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-18900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F35" s="3">
         <v>2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>4000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>9200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-5500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>3400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-13400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>3900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>4200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>12800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-17300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>3000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-3000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-18900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,31 +2919,33 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
@@ -2780,46 +2954,52 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>300</v>
       </c>
       <c r="T41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U41" s="3">
         <v>300</v>
       </c>
       <c r="V41" s="3">
+        <v>300</v>
+      </c>
+      <c r="W41" s="3">
+        <v>300</v>
+      </c>
+      <c r="X41" s="3">
         <v>1100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>300</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +3069,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,22 +3146,28 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -2984,7 +3176,7 @@
         <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
@@ -3017,22 +3209,28 @@
         <v>100</v>
       </c>
       <c r="U44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W44" s="3">
         <v>200</v>
       </c>
       <c r="X44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3102,20 +3300,26 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>300</v>
+      </c>
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
@@ -3129,52 +3333,58 @@
         <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
-      <c r="N46" s="3">
-        <v>300</v>
-      </c>
       <c r="O46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>300</v>
       </c>
       <c r="Q46" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="R46" s="3">
         <v>300</v>
       </c>
       <c r="S46" s="3">
+        <v>500</v>
+      </c>
+      <c r="T46" s="3">
+        <v>300</v>
+      </c>
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>400</v>
       </c>
-      <c r="Y46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3193,11 +3403,11 @@
       <c r="H47" s="3">
         <v>0</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -3208,11 +3418,11 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -3244,8 +3454,14 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3253,70 +3469,76 @@
         <v>800</v>
       </c>
       <c r="E48" s="3">
+        <v>800</v>
+      </c>
+      <c r="F48" s="3">
+        <v>800</v>
+      </c>
+      <c r="G48" s="3">
         <v>2000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>4800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3543,10 +3783,10 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -3579,28 +3819,34 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U52" s="3">
         <v>100</v>
       </c>
       <c r="V52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F54" s="3">
         <v>1600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2200</v>
-      </c>
-      <c r="F54" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G54" s="3">
-        <v>2300</v>
       </c>
       <c r="H54" s="3">
         <v>2300</v>
       </c>
       <c r="I54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K54" s="3">
         <v>2500</v>
-      </c>
-      <c r="J54" s="3">
-        <v>2700</v>
-      </c>
-      <c r="K54" s="3">
-        <v>2800</v>
       </c>
       <c r="L54" s="3">
         <v>2700</v>
       </c>
       <c r="M54" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N54" s="3">
         <v>2700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P54" s="3">
         <v>3100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +4055,10 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3804,70 +4066,76 @@
         <v>1100</v>
       </c>
       <c r="E57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3875,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>400</v>
       </c>
       <c r="H58" s="3">
         <v>400</v>
@@ -3896,7 +4164,7 @@
         <v>400</v>
       </c>
       <c r="L58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M58" s="3">
         <v>400</v>
@@ -3905,202 +4173,220 @@
         <v>300</v>
       </c>
       <c r="O58" s="3">
+        <v>400</v>
+      </c>
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
+        <v>300</v>
+      </c>
+      <c r="R58" s="3">
         <v>2900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>2300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1100</v>
-      </c>
-      <c r="W58" s="3">
-        <v>700</v>
-      </c>
-      <c r="X58" s="3">
-        <v>700</v>
       </c>
       <c r="Y58" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F59" s="3">
         <v>7000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>9200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>13700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>23300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>18100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>22000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>9600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>8300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>8600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>10400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>11700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>16400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>20400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>5000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>7800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>5700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>17600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>4200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>4400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>7200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>8600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F60" s="3">
         <v>8100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>12100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>16100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>25700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>20300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>23800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>11400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>10000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>10000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>11400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>12700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>17300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>23900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>8000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>11500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>7800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>19300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>5800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>5700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>8300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>9800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F61" s="3">
         <v>7200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>6800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>6700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>6700</v>
-      </c>
-      <c r="H61" s="3">
-        <v>6600</v>
-      </c>
-      <c r="I61" s="3">
-        <v>6600</v>
       </c>
       <c r="J61" s="3">
         <v>6600</v>
@@ -4109,120 +4395,132 @@
         <v>6600</v>
       </c>
       <c r="L61" s="3">
+        <v>6600</v>
+      </c>
+      <c r="M61" s="3">
+        <v>6600</v>
+      </c>
+      <c r="N61" s="3">
         <v>6000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>5700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>5300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>5000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>4800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>1000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>600</v>
+      </c>
+      <c r="E62" s="3">
         <v>700</v>
       </c>
-      <c r="E62" s="3">
-        <v>200</v>
-      </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
       </c>
       <c r="H62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
       </c>
       <c r="K62" s="3">
+        <v>300</v>
+      </c>
+      <c r="L62" s="3">
+        <v>300</v>
+      </c>
+      <c r="M62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3">
-        <v>100</v>
-      </c>
-      <c r="M62" s="3">
-        <v>100</v>
-      </c>
       <c r="N62" s="3">
+        <v>100</v>
+      </c>
+      <c r="O62" s="3">
+        <v>100</v>
+      </c>
+      <c r="P62" s="3">
         <v>400</v>
       </c>
-      <c r="O62" s="3" t="s">
+      <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3" t="s">
+      <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>8400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>9600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>10800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>13000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>8400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>9000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>12700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>10900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F66" s="3">
         <v>14200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>17400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>21500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>31200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>25700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>29300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>16900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>15600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>14800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>16000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>17200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>21100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>24900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>17200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>21600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>20300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>33000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>18200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>14700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>20800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>21100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-34500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-36600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-40600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-49700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-44200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-47600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-34200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-32800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-32100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-31000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-31800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-35700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-39900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-32800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-33400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-32000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-44700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-30400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-26800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-32800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-29800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-12600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-15200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-19200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-28900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-23400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-26800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-14200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-12800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-12200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-13300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-14100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-18000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-22300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-14300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-20200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-18800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-31600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-16300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-13000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-19000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-20400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F81" s="3">
         <v>2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>4000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>9200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-5500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>3400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-13400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>3900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>4200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>12800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-17300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>3000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-3000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-18900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5437,10 +5835,10 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -5464,10 +5862,10 @@
         <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,31 +6270,37 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-500</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
@@ -5875,46 +6309,52 @@
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-500</v>
       </c>
       <c r="U89" s="3">
         <v>-400</v>
       </c>
       <c r="V89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X89" s="3">
         <v>-1300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5988,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5997,22 +6439,28 @@
         <v>-100</v>
       </c>
       <c r="U91" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="V91" s="3">
         <v>-100</v>
       </c>
       <c r="W91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,35 +6607,41 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>1300</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -6201,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -6210,22 +6670,28 @@
         <v>-100</v>
       </c>
       <c r="U94" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="V94" s="3">
         <v>-100</v>
       </c>
       <c r="W94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,37 +7021,43 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
-      </c>
-      <c r="E100" s="3">
-        <v>200</v>
-      </c>
-      <c r="F100" s="3">
-        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>200</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
@@ -6574,40 +7066,46 @@
         <v>200</v>
       </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
+        <v>200</v>
+      </c>
+      <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>2200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>1700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6617,11 +7115,11 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
@@ -6635,11 +7133,11 @@
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -6677,20 +7175,26 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -6707,45 +7211,51 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>900</v>
       </c>
-      <c r="X102" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KAYS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KAYS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>KAYS</t>
   </si>
@@ -1371,8 +1371,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>500</v>
       </c>
       <c r="E17" s="3">
         <v>500</v>
@@ -1448,8 +1448,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-300</v>
       </c>
       <c r="E18" s="3">
         <v>-300</v>
@@ -1554,8 +1554,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>3600</v>
       </c>
       <c r="E20" s="3">
         <v>-600</v>
@@ -1631,8 +1631,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>3400</v>
       </c>
       <c r="E21" s="3">
         <v>-900</v>
@@ -2016,8 +2016,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>3100</v>
       </c>
       <c r="E26" s="3">
         <v>-1100</v>
@@ -2093,8 +2093,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>3100</v>
       </c>
       <c r="E27" s="3">
         <v>-1100</v>
@@ -2478,8 +2478,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-3600</v>
       </c>
       <c r="E32" s="3">
         <v>600</v>
@@ -2555,8 +2555,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>3100</v>
       </c>
       <c r="E33" s="3">
         <v>-1100</v>
@@ -2709,8 +2709,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>3100</v>
       </c>
       <c r="E35" s="3">
         <v>-1100</v>
@@ -5478,7 +5478,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-12400</v>
+        <v>-10600</v>
       </c>
       <c r="E76" s="3">
         <v>-13700</v>
@@ -5713,8 +5713,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>3100</v>
       </c>
       <c r="E81" s="3">
         <v>-1100</v>
@@ -7187,7 +7187,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
         <v>-400</v>

--- a/AAII_Financials/Quarterly/KAYS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KAYS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>KAYS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,7 +800,7 @@
         <v>200</v>
       </c>
       <c r="J8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K8" s="3">
         <v>300</v>
@@ -805,19 +809,19 @@
         <v>300</v>
       </c>
       <c r="M8" s="3">
+        <v>300</v>
+      </c>
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>300</v>
-      </c>
-      <c r="O8" s="3">
-        <v>200</v>
       </c>
       <c r="P8" s="3">
         <v>200</v>
       </c>
       <c r="Q8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R8" s="3">
         <v>300</v>
@@ -841,16 +845,19 @@
         <v>300</v>
       </c>
       <c r="Y8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Z8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA8" s="3">
         <v>200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -882,10 +889,10 @@
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -950,7 +960,7 @@
         <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
@@ -965,13 +975,13 @@
         <v>200</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
       <c r="Q10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3">
         <v>200</v>
@@ -995,16 +1005,19 @@
         <v>200</v>
       </c>
       <c r="Y10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Z10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1198,28 +1218,28 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>100</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>100</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>100</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1234,37 +1254,40 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-1100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1100</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>200</v>
       </c>
-      <c r="X14" s="3">
-        <v>100</v>
-      </c>
       <c r="Y14" s="3">
         <v>100</v>
       </c>
       <c r="Z14" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA14" s="3">
         <v>-100</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>500</v>
       </c>
       <c r="F17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G17" s="3">
         <v>600</v>
       </c>
       <c r="H17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I17" s="3">
         <v>500</v>
       </c>
       <c r="J17" s="3">
+        <v>500</v>
+      </c>
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>600</v>
       </c>
       <c r="Q17" s="3">
         <v>600</v>
       </c>
       <c r="R17" s="3">
+        <v>600</v>
+      </c>
+      <c r="S17" s="3">
         <v>-300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E18" s="3">
         <v>-300</v>
       </c>
       <c r="F18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="G18" s="3">
         <v>-400</v>
       </c>
       <c r="H18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I18" s="3">
         <v>-300</v>
       </c>
       <c r="J18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,162 +1582,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E20" s="3">
         <v>3600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>9700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>14800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-16100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>5100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-18300</v>
       </c>
-      <c r="AA20" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E21" s="3">
         <v>3400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-13100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-6300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>13500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-16700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-18500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1724,10 +1764,10 @@
         <v>200</v>
       </c>
       <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
@@ -1736,10 +1776,10 @@
         <v>200</v>
       </c>
       <c r="M22" s="3">
+        <v>200</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
-      </c>
-      <c r="N22" s="3">
-        <v>500</v>
       </c>
       <c r="O22" s="3">
         <v>500</v>
@@ -1751,13 +1791,13 @@
         <v>500</v>
       </c>
       <c r="R22" s="3">
+        <v>500</v>
+      </c>
+      <c r="S22" s="3">
         <v>800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>700</v>
       </c>
       <c r="U22" s="3">
         <v>700</v>
@@ -1769,119 +1809,125 @@
         <v>700</v>
       </c>
       <c r="X22" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y22" s="3">
         <v>1300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>800</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E23" s="3">
         <v>3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>12700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-17400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-19200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>8</v>
@@ -1889,8 +1935,8 @@
       <c r="L24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E26" s="3">
         <v>3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>12700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-17400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-19200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E27" s="3">
         <v>3100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>12800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-17300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-18900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-9700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
-        <v>100</v>
-      </c>
       <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-14800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>16100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-5100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>18300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E33" s="3">
         <v>3100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>12800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-17300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-18900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E35" s="3">
         <v>3100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>12800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-17300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-18900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2930,14 +3017,14 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
@@ -2945,10 +3032,10 @@
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
@@ -2960,10 +3047,10 @@
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
@@ -2972,13 +3059,13 @@
         <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>200</v>
-      </c>
-      <c r="U41" s="3">
-        <v>300</v>
       </c>
       <c r="V41" s="3">
         <v>300</v>
@@ -2987,19 +3074,22 @@
         <v>300</v>
       </c>
       <c r="X41" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y41" s="3">
         <v>1100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>300</v>
       </c>
-      <c r="AA41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3164,22 +3260,22 @@
         <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
         <v>100</v>
@@ -3215,7 +3311,7 @@
         <v>100</v>
       </c>
       <c r="W44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X44" s="3">
         <v>200</v>
@@ -3224,13 +3320,16 @@
         <v>200</v>
       </c>
       <c r="Z44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3315,14 +3417,14 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
@@ -3339,52 +3441,55 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
-      </c>
-      <c r="U46" s="3">
-        <v>400</v>
       </c>
       <c r="V46" s="3">
         <v>400</v>
       </c>
       <c r="W46" s="3">
+        <v>400</v>
+      </c>
+      <c r="X46" s="3">
         <v>500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>400</v>
       </c>
-      <c r="AA46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3409,8 +3514,8 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -3424,8 +3529,8 @@
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3475,70 +3583,73 @@
         <v>800</v>
       </c>
       <c r="G48" s="3">
+        <v>800</v>
+      </c>
+      <c r="H48" s="3">
         <v>2000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2100</v>
       </c>
       <c r="I48" s="3">
         <v>2100</v>
       </c>
       <c r="J48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K48" s="3">
         <v>4800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1000</v>
-      </c>
-      <c r="U48" s="3">
-        <v>900</v>
       </c>
       <c r="V48" s="3">
         <v>900</v>
       </c>
       <c r="W48" s="3">
+        <v>900</v>
+      </c>
+      <c r="X48" s="3">
         <v>1400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>300</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>200</v>
       </c>
       <c r="AA48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3789,7 +3909,7 @@
         <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -3825,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="U52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V52" s="3">
         <v>100</v>
@@ -3834,19 +3954,22 @@
         <v>100</v>
       </c>
       <c r="X52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y52" s="3">
         <v>0</v>
       </c>
       <c r="Z52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,8 +4045,11 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3931,16 +4057,16 @@
         <v>1000</v>
       </c>
       <c r="E54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F54" s="3">
         <v>1200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2200</v>
-      </c>
-      <c r="H54" s="3">
-        <v>2300</v>
       </c>
       <c r="I54" s="3">
         <v>2300</v>
@@ -3949,58 +4075,61 @@
         <v>2300</v>
       </c>
       <c r="K54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L54" s="3">
         <v>2500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2800</v>
-      </c>
-      <c r="N54" s="3">
-        <v>2700</v>
       </c>
       <c r="O54" s="3">
         <v>2700</v>
       </c>
       <c r="P54" s="3">
-        <v>3100</v>
+        <v>2700</v>
       </c>
       <c r="Q54" s="3">
         <v>3100</v>
       </c>
       <c r="R54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S54" s="3">
         <v>2600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1300</v>
-      </c>
-      <c r="U54" s="3">
-        <v>1400</v>
       </c>
       <c r="V54" s="3">
         <v>1400</v>
       </c>
       <c r="W54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X54" s="3">
         <v>1900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,90 +4187,94 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1400</v>
       </c>
       <c r="L57" s="3">
         <v>1400</v>
       </c>
       <c r="M57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1100</v>
-      </c>
-      <c r="O57" s="3">
-        <v>700</v>
       </c>
       <c r="P57" s="3">
         <v>700</v>
       </c>
       <c r="Q57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="R57" s="3">
         <v>600</v>
       </c>
       <c r="S57" s="3">
+        <v>600</v>
+      </c>
+      <c r="T57" s="3">
         <v>500</v>
-      </c>
-      <c r="T57" s="3">
-        <v>1400</v>
       </c>
       <c r="U57" s="3">
         <v>1400</v>
       </c>
       <c r="V57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W57" s="3">
         <v>500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>400</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>500</v>
       </c>
       <c r="AA57" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -4149,10 +4283,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>400</v>
       </c>
       <c r="I58" s="3">
         <v>400</v>
@@ -4170,40 +4304,40 @@
         <v>400</v>
       </c>
       <c r="N58" s="3">
+        <v>400</v>
+      </c>
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
-      </c>
-      <c r="P58" s="3">
-        <v>300</v>
       </c>
       <c r="Q58" s="3">
         <v>300</v>
       </c>
       <c r="R58" s="3">
+        <v>300</v>
+      </c>
+      <c r="S58" s="3">
         <v>2900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1200</v>
-      </c>
-      <c r="W58" s="3">
-        <v>1100</v>
       </c>
       <c r="X58" s="3">
         <v>1100</v>
       </c>
       <c r="Y58" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="Z58" s="3">
         <v>700</v>
@@ -4211,162 +4345,171 @@
       <c r="AA58" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E59" s="3">
         <v>4300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>23300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>18100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>22000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>16400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>20400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>17600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>7200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>8600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E60" s="3">
         <v>5400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>25700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>20300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>10000</v>
       </c>
       <c r="N60" s="3">
         <v>10000</v>
       </c>
       <c r="O60" s="3">
+        <v>10000</v>
+      </c>
+      <c r="P60" s="3">
         <v>11400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>17300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>23900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>19300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>9800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4377,19 +4520,19 @@
         <v>7300</v>
       </c>
       <c r="F61" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G61" s="3">
         <v>7200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6800</v>
-      </c>
-      <c r="H61" s="3">
-        <v>6700</v>
       </c>
       <c r="I61" s="3">
         <v>6700</v>
       </c>
       <c r="J61" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="K61" s="3">
         <v>6600</v>
@@ -4401,49 +4544,52 @@
         <v>6600</v>
       </c>
       <c r="N61" s="3">
+        <v>6600</v>
+      </c>
+      <c r="O61" s="3">
         <v>6000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4451,13 +4597,13 @@
         <v>600</v>
       </c>
       <c r="E62" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F62" s="3">
         <v>700</v>
       </c>
       <c r="G62" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="H62" s="3">
         <v>200</v>
@@ -4466,7 +4612,7 @@
         <v>200</v>
       </c>
       <c r="J62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
@@ -4475,52 +4621,55 @@
         <v>300</v>
       </c>
       <c r="M62" s="3">
+        <v>300</v>
+      </c>
+      <c r="N62" s="3">
         <v>400</v>
       </c>
-      <c r="N62" s="3">
-        <v>100</v>
-      </c>
       <c r="O62" s="3">
         <v>100</v>
       </c>
       <c r="P62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q62" s="3">
         <v>400</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3">
         <v>8400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>10800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>13000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>8400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>12700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>10900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E66" s="3">
         <v>11500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>31200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>25700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>24900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>17200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>21600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>20300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>33000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>18200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>14700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>20800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>21100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-32500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-35600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-34500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-36600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-40600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-49700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-44200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-47600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-34200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-32800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-32100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-31000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-31800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-35700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-39900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-32800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-33400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-32000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-44700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-30400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-26800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-32800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-29800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-10600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-13700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-12600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-15200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-19200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-28900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-23400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-26800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-14200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-12800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-12200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-13300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-14100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-18000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-22300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-14300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-20200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-18800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-31600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-16300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-13000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-19000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-20400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E81" s="3">
         <v>3100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>12800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-17300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-18900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5841,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -5868,7 +6067,7 @@
         <v>100</v>
       </c>
       <c r="T83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,34 +6490,37 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
@@ -6315,7 +6532,7 @@
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
@@ -6324,37 +6541,40 @@
         <v>-200</v>
       </c>
       <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6436,31 +6657,34 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-500</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-100</v>
       </c>
       <c r="Y91" s="3">
         <v>-100</v>
       </c>
       <c r="Z91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6625,25 +6855,25 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>1300</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -6667,31 +6897,34 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-500</v>
-      </c>
-      <c r="X94" s="3">
-        <v>-100</v>
       </c>
       <c r="Y94" s="3">
         <v>-100</v>
       </c>
       <c r="Z94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,34 +7270,37 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
@@ -7063,49 +7309,52 @@
         <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>200</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7121,8 +7370,8 @@
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>8</v>
@@ -7139,8 +7388,8 @@
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -7181,23 +7430,26 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -7217,45 +7469,48 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
         <v>-100</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>900</v>
       </c>
-      <c r="Z102" s="3">
-        <v>100</v>
-      </c>
       <c r="AA102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KAYS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KAYS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>KAYS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,127 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
@@ -803,7 +806,7 @@
         <v>200</v>
       </c>
       <c r="K8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L8" s="3">
         <v>300</v>
@@ -812,19 +815,19 @@
         <v>300</v>
       </c>
       <c r="N8" s="3">
+        <v>300</v>
+      </c>
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>300</v>
-      </c>
-      <c r="P8" s="3">
-        <v>200</v>
       </c>
       <c r="Q8" s="3">
         <v>200</v>
       </c>
       <c r="R8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S8" s="3">
         <v>300</v>
@@ -848,21 +851,24 @@
         <v>300</v>
       </c>
       <c r="Z8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AA8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB8" s="3">
         <v>200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
@@ -892,10 +898,10 @@
         <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
@@ -936,8 +942,11 @@
       <c r="AB9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -963,7 +972,7 @@
         <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>200</v>
@@ -978,13 +987,13 @@
         <v>200</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="3">
         <v>100</v>
       </c>
       <c r="R10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S10" s="3">
         <v>200</v>
@@ -1008,16 +1017,19 @@
         <v>200</v>
       </c>
       <c r="Z10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AA10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1221,28 +1240,28 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>100</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>100</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>100</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1257,37 +1276,40 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-1100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1100</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>200</v>
       </c>
-      <c r="Y14" s="3">
-        <v>100</v>
-      </c>
       <c r="Z14" s="3">
         <v>100</v>
       </c>
       <c r="AA14" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB14" s="3">
         <v>-100</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
-      </c>
-      <c r="E17" s="3">
-        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>500</v>
       </c>
       <c r="G17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H17" s="3">
         <v>600</v>
       </c>
       <c r="I17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J17" s="3">
         <v>500</v>
       </c>
       <c r="K17" s="3">
+        <v>500</v>
+      </c>
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>600</v>
       </c>
       <c r="R17" s="3">
         <v>600</v>
       </c>
       <c r="S17" s="3">
+        <v>600</v>
+      </c>
+      <c r="T17" s="3">
         <v>-300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-300</v>
       </c>
       <c r="F18" s="3">
         <v>-300</v>
       </c>
       <c r="G18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="H18" s="3">
         <v>-400</v>
       </c>
       <c r="I18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
       </c>
       <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,173 +1615,180 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>9700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-12400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>14800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-16100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>5100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-18300</v>
       </c>
-      <c r="AB20" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-13100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-6300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>13500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-16700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>4100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-18500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1767,10 +1806,10 @@
         <v>200</v>
       </c>
       <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
-      </c>
-      <c r="K22" s="3">
-        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
@@ -1779,10 +1818,10 @@
         <v>200</v>
       </c>
       <c r="N22" s="3">
+        <v>200</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>500</v>
       </c>
       <c r="P22" s="3">
         <v>500</v>
@@ -1794,13 +1833,13 @@
         <v>500</v>
       </c>
       <c r="S22" s="3">
+        <v>500</v>
+      </c>
+      <c r="T22" s="3">
         <v>800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>700</v>
       </c>
       <c r="V22" s="3">
         <v>700</v>
@@ -1812,99 +1851,105 @@
         <v>700</v>
       </c>
       <c r="Y22" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z22" s="3">
         <v>1300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>800</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>12700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-17400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-19200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1912,25 +1957,25 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>8</v>
@@ -1938,8 +1983,8 @@
       <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1983,8 +2028,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>12700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-17400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-19200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>12800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-17300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-18900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E32" s="3">
         <v>7000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-9700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3">
-        <v>100</v>
-      </c>
       <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-14800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>16100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-5100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>18300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>12800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-17300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-18900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>12800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-17300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-18900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3093,9 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3020,14 +3106,14 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
@@ -3035,10 +3121,10 @@
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
@@ -3050,10 +3136,10 @@
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
@@ -3062,13 +3148,13 @@
         <v>100</v>
       </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>200</v>
-      </c>
-      <c r="V41" s="3">
-        <v>300</v>
       </c>
       <c r="W41" s="3">
         <v>300</v>
@@ -3077,19 +3163,22 @@
         <v>300</v>
       </c>
       <c r="Y41" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z41" s="3">
         <v>1100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>300</v>
       </c>
-      <c r="AB41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3257,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3340,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3263,22 +3358,22 @@
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
         <v>100</v>
@@ -3314,7 +3409,7 @@
         <v>100</v>
       </c>
       <c r="X44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y44" s="3">
         <v>200</v>
@@ -3323,13 +3418,16 @@
         <v>200</v>
       </c>
       <c r="AA44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3408,8 +3506,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3420,14 +3521,14 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
@@ -3444,52 +3545,55 @@
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>300</v>
-      </c>
-      <c r="V46" s="3">
-        <v>400</v>
       </c>
       <c r="W46" s="3">
         <v>400</v>
       </c>
       <c r="X46" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y46" s="3">
         <v>500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>400</v>
       </c>
-      <c r="AB46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3517,8 +3621,8 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
@@ -3532,8 +3636,8 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3568,13 +3672,16 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E48" s="3">
         <v>800</v>
@@ -3586,70 +3693,73 @@
         <v>800</v>
       </c>
       <c r="H48" s="3">
+        <v>800</v>
+      </c>
+      <c r="I48" s="3">
         <v>2000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2100</v>
       </c>
       <c r="J48" s="3">
         <v>2100</v>
       </c>
       <c r="K48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L48" s="3">
         <v>4800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1000</v>
-      </c>
-      <c r="V48" s="3">
-        <v>900</v>
       </c>
       <c r="W48" s="3">
         <v>900</v>
       </c>
       <c r="X48" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y48" s="3">
         <v>1400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>300</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>200</v>
       </c>
       <c r="AB48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,13 +4004,16 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
@@ -3912,7 +4031,7 @@
         <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3948,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W52" s="3">
         <v>100</v>
@@ -3957,19 +4076,22 @@
         <v>100</v>
       </c>
       <c r="Y52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z52" s="3">
         <v>0</v>
       </c>
       <c r="AA52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,28 +4170,31 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E54" s="3">
         <v>1000</v>
       </c>
       <c r="F54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G54" s="3">
         <v>1200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>2300</v>
       </c>
       <c r="J54" s="3">
         <v>2300</v>
@@ -4078,58 +4203,61 @@
         <v>2300</v>
       </c>
       <c r="L54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M54" s="3">
         <v>2500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2800</v>
-      </c>
-      <c r="O54" s="3">
-        <v>2700</v>
       </c>
       <c r="P54" s="3">
         <v>2700</v>
       </c>
       <c r="Q54" s="3">
-        <v>3100</v>
+        <v>2700</v>
       </c>
       <c r="R54" s="3">
         <v>3100</v>
       </c>
       <c r="S54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="T54" s="3">
         <v>2600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1300</v>
-      </c>
-      <c r="V54" s="3">
-        <v>1400</v>
       </c>
       <c r="W54" s="3">
         <v>1400</v>
       </c>
       <c r="X54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y54" s="3">
         <v>1900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4317,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4197,87 +4327,90 @@
         <v>1200</v>
       </c>
       <c r="E57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1400</v>
       </c>
       <c r="M57" s="3">
         <v>1400</v>
       </c>
       <c r="N57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
-      </c>
-      <c r="P57" s="3">
-        <v>700</v>
       </c>
       <c r="Q57" s="3">
         <v>700</v>
       </c>
       <c r="R57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="S57" s="3">
         <v>600</v>
       </c>
       <c r="T57" s="3">
+        <v>600</v>
+      </c>
+      <c r="U57" s="3">
         <v>500</v>
-      </c>
-      <c r="U57" s="3">
-        <v>1400</v>
       </c>
       <c r="V57" s="3">
         <v>1400</v>
       </c>
       <c r="W57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X57" s="3">
         <v>500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>400</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>500</v>
       </c>
       <c r="AB57" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -4286,10 +4419,10 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>400</v>
       </c>
       <c r="J58" s="3">
         <v>400</v>
@@ -4307,40 +4440,40 @@
         <v>400</v>
       </c>
       <c r="O58" s="3">
+        <v>400</v>
+      </c>
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>300</v>
       </c>
       <c r="R58" s="3">
         <v>300</v>
       </c>
       <c r="S58" s="3">
+        <v>300</v>
+      </c>
+      <c r="T58" s="3">
         <v>2900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1200</v>
-      </c>
-      <c r="X58" s="3">
-        <v>1100</v>
       </c>
       <c r="Y58" s="3">
         <v>1100</v>
       </c>
       <c r="Z58" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="AA58" s="3">
         <v>700</v>
@@ -4348,173 +4481,182 @@
       <c r="AB58" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E59" s="3">
         <v>11500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>23300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>22000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>16400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>20400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>17600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>7200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>8600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E60" s="3">
         <v>12900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>16100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>25700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>20300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>23800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>10000</v>
       </c>
       <c r="O60" s="3">
         <v>10000</v>
       </c>
       <c r="P60" s="3">
+        <v>10000</v>
+      </c>
+      <c r="Q60" s="3">
         <v>11400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>17300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>23900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>11500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>19300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>8300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>9800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="E61" s="3">
         <v>7300</v>
@@ -4523,19 +4665,19 @@
         <v>7300</v>
       </c>
       <c r="G61" s="3">
+        <v>7300</v>
+      </c>
+      <c r="H61" s="3">
         <v>7200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6800</v>
-      </c>
-      <c r="I61" s="3">
-        <v>6700</v>
       </c>
       <c r="J61" s="3">
         <v>6700</v>
       </c>
       <c r="K61" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="L61" s="3">
         <v>6600</v>
@@ -4547,49 +4689,52 @@
         <v>6600</v>
       </c>
       <c r="O61" s="3">
+        <v>6600</v>
+      </c>
+      <c r="P61" s="3">
         <v>6000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4600,13 +4745,13 @@
         <v>600</v>
       </c>
       <c r="F62" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G62" s="3">
         <v>700</v>
       </c>
       <c r="H62" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
@@ -4615,7 +4760,7 @@
         <v>200</v>
       </c>
       <c r="K62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L62" s="3">
         <v>300</v>
@@ -4624,52 +4769,55 @@
         <v>300</v>
       </c>
       <c r="N62" s="3">
+        <v>300</v>
+      </c>
+      <c r="O62" s="3">
         <v>400</v>
       </c>
-      <c r="O62" s="3">
-        <v>100</v>
-      </c>
       <c r="P62" s="3">
         <v>100</v>
       </c>
       <c r="Q62" s="3">
+        <v>100</v>
+      </c>
+      <c r="R62" s="3">
         <v>400</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3">
         <v>8400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>10800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>13000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>8400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>12700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>10900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E66" s="3">
         <v>18900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>31200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>29300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>21100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>24900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>17200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>21600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>20300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>33000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>18200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>14700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>20800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>21100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-39900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-32500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-35600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-34500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-36600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-40600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-49700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-44200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-47600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-34200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-32800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-32100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-31800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-35700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-39900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-32800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-33400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-32000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-44700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-30400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-26800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-32800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-29800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-18000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-10600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-13700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-12600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-15200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-19200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-28900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-23400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-26800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-14200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-12800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-12200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-14100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-18000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-22300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-14300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-20200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-18800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-31600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-16300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-13000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-19000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-20400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>12800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-17300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-18900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6043,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -6070,7 +6268,7 @@
         <v>100</v>
       </c>
       <c r="U83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6706,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6502,28 +6718,28 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
@@ -6535,7 +6751,7 @@
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
@@ -6544,37 +6760,40 @@
         <v>-200</v>
       </c>
       <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6660,31 +6880,34 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-500</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-100</v>
       </c>
       <c r="Z91" s="3">
         <v>-100</v>
       </c>
       <c r="AA91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7069,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6858,25 +7087,25 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>1300</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -6900,31 +7129,34 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-500</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>-100</v>
       </c>
       <c r="Z94" s="3">
         <v>-100</v>
       </c>
       <c r="AA94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7515,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7282,28 +7527,28 @@
         <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
@@ -7312,49 +7557,52 @@
         <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>200</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
         <v>700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7373,8 +7621,8 @@
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
@@ -7391,8 +7639,8 @@
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -7433,8 +7681,11 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7442,17 +7693,17 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -7472,45 +7723,48 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
       <c r="U102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
         <v>-100</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>900</v>
       </c>
-      <c r="AA102" s="3">
-        <v>100</v>
-      </c>
       <c r="AB102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KAYS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KAYS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>KAYS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,130 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,10 +796,10 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>200</v>
@@ -809,16 +817,16 @@
         <v>200</v>
       </c>
       <c r="L8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N8" s="3">
         <v>300</v>
       </c>
       <c r="O8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P8" s="3">
         <v>300</v>
@@ -827,13 +835,13 @@
         <v>200</v>
       </c>
       <c r="R8" s="3">
+        <v>300</v>
+      </c>
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
-        <v>300</v>
-      </c>
       <c r="T8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U8" s="3">
         <v>300</v>
@@ -854,16 +862,22 @@
         <v>300</v>
       </c>
       <c r="AA8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AB8" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD8" s="3">
         <v>200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -871,10 +885,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
@@ -901,13 +915,13 @@
         <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
@@ -945,8 +959,14 @@
       <c r="AC9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -954,7 +974,7 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
@@ -975,10 +995,10 @@
         <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>200</v>
@@ -990,16 +1010,16 @@
         <v>200</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U10" s="3">
         <v>200</v>
@@ -1020,16 +1040,22 @@
         <v>200</v>
       </c>
       <c r="AA10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,16 +1259,22 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1243,32 +1283,32 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>100</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
-        <v>100</v>
-      </c>
-      <c r="M14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>100</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1279,37 +1319,43 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-1100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>1100</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>200</v>
       </c>
-      <c r="Z14" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>100</v>
-      </c>
       <c r="AB14" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD14" s="3">
         <v>-100</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>400</v>
       </c>
       <c r="F17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>400</v>
+      </c>
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>-300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-400</v>
       </c>
       <c r="S18" s="3">
         <v>-300</v>
       </c>
       <c r="T18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V18" s="3">
         <v>600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-1800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-1300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,185 +1682,199 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>800</v>
+      </c>
+      <c r="F20" s="3">
         <v>2900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-7000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>3600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>3300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>4600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>9700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-4900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-12400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>4700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>4900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-7000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>3300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>14800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-16100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>5100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-18300</v>
       </c>
-      <c r="AC20" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>400</v>
+      </c>
+      <c r="F21" s="3">
         <v>2100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-7200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>3400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>2900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>4200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>9400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-5200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>3400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-13100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>4400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>4700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-6300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>1500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>13500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-16700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>4100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-18500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
-        <v>200</v>
-      </c>
       <c r="F22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
@@ -1809,25 +1889,25 @@
         <v>200</v>
       </c>
       <c r="K22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
       </c>
       <c r="M22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
       </c>
       <c r="O22" s="3">
+        <v>200</v>
+      </c>
+      <c r="P22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
-      </c>
-      <c r="P22" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>500</v>
       </c>
       <c r="R22" s="3">
         <v>500</v>
@@ -1836,16 +1916,16 @@
         <v>500</v>
       </c>
       <c r="T22" s="3">
+        <v>500</v>
+      </c>
+      <c r="U22" s="3">
+        <v>500</v>
+      </c>
+      <c r="V22" s="3">
         <v>800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>1000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>700</v>
-      </c>
-      <c r="W22" s="3">
-        <v>700</v>
       </c>
       <c r="X22" s="3">
         <v>700</v>
@@ -1854,102 +1934,114 @@
         <v>700</v>
       </c>
       <c r="Z22" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB22" s="3">
         <v>1300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>800</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-7400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>3900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>9100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-5500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>3300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-13400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>3800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>4100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-7200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>12700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-17400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>2800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-19200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1960,37 +2052,37 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>8</v>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -2031,8 +2123,14 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-7400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>9100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-5500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>3300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-13400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>3800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>4100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-7200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>12700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-17400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>2800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-19200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-7400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>4000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>9200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-5500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>3400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-13400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>3900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>4200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-7100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>12800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-17300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>3000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-3000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-18900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2746,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>7000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-3600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-3300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-4600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-9700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>4900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>12400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
-        <v>100</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-4700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-4900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>7000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-3300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-14800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>16100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-5100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>1800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>18300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-7400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>4000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>9200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-5500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>3400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-13400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>3900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>4200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-7100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>12800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-17300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>3000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-3000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-18900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-7400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>4000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>9200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-5500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>3400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-13400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>3900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>4200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-7100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>12800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-17300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>3000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-3000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-18900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,13 +3266,15 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -3109,28 +3283,28 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
@@ -3139,46 +3313,52 @@
         <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
         <v>300</v>
       </c>
       <c r="X41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y41" s="3">
         <v>300</v>
       </c>
       <c r="Z41" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB41" s="3">
         <v>1100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>1300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>300</v>
       </c>
-      <c r="AC41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,8 +3440,14 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3343,8 +3529,14 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3361,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -3379,7 +3571,7 @@
         <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
         <v>100</v>
@@ -3412,22 +3604,28 @@
         <v>100</v>
       </c>
       <c r="Y44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA44" s="3">
         <v>200</v>
       </c>
       <c r="AB44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3509,8 +3707,14 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3524,17 +3728,17 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
@@ -3548,52 +3752,58 @@
         <v>100</v>
       </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
-        <v>100</v>
-      </c>
-      <c r="R46" s="3">
-        <v>300</v>
-      </c>
       <c r="S46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
         <v>300</v>
       </c>
       <c r="U46" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="V46" s="3">
         <v>300</v>
       </c>
       <c r="W46" s="3">
+        <v>500</v>
+      </c>
+      <c r="X46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y46" s="3">
         <v>400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>1400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>400</v>
       </c>
-      <c r="AC46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3624,11 +3834,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
@@ -3639,11 +3849,11 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3675,19 +3885,25 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>200</v>
+      </c>
+      <c r="F48" s="3">
         <v>700</v>
-      </c>
-      <c r="E48" s="3">
-        <v>800</v>
-      </c>
-      <c r="F48" s="3">
-        <v>800</v>
       </c>
       <c r="G48" s="3">
         <v>800</v>
@@ -3696,70 +3912,76 @@
         <v>800</v>
       </c>
       <c r="I48" s="3">
+        <v>800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>800</v>
+      </c>
+      <c r="K48" s="3">
         <v>2000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>4800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>2300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>2400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3841,8 +4063,14 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4241,14 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4016,10 +4256,10 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -4034,10 +4274,10 @@
         <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -4070,28 +4310,34 @@
         <v>0</v>
       </c>
       <c r="W52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="3">
         <v>100</v>
       </c>
       <c r="Z52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC52" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>300</v>
+      </c>
+      <c r="F54" s="3">
         <v>800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2200</v>
-      </c>
-      <c r="J54" s="3">
-        <v>2300</v>
-      </c>
-      <c r="K54" s="3">
-        <v>2300</v>
       </c>
       <c r="L54" s="3">
         <v>2300</v>
       </c>
       <c r="M54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O54" s="3">
         <v>2500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>2700</v>
-      </c>
-      <c r="O54" s="3">
-        <v>2800</v>
       </c>
       <c r="P54" s="3">
         <v>2700</v>
       </c>
       <c r="Q54" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R54" s="3">
         <v>2700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T54" s="3">
         <v>3100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>1700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>1800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,8 +4578,10 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4327,108 +4589,114 @@
         <v>1200</v>
       </c>
       <c r="E57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
-        <v>1100</v>
-      </c>
       <c r="G57" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="H57" s="3">
         <v>1100</v>
       </c>
       <c r="I57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
-        <v>100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>400</v>
-      </c>
-      <c r="K58" s="3">
-        <v>400</v>
       </c>
       <c r="L58" s="3">
         <v>400</v>
@@ -4443,7 +4711,7 @@
         <v>400</v>
       </c>
       <c r="P58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q58" s="3">
         <v>400</v>
@@ -4452,238 +4720,256 @@
         <v>300</v>
       </c>
       <c r="S58" s="3">
+        <v>400</v>
+      </c>
+      <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
+        <v>300</v>
+      </c>
+      <c r="V58" s="3">
         <v>2900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>2400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>2300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>1100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>1100</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>700</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>700</v>
       </c>
       <c r="AC58" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>700</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F59" s="3">
         <v>8900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>11500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>7700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>7000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>9200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>13700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>23300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>18100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>22000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>9600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>8300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>8600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>10400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>11700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>16400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>20400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>5000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>7800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>5700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>17600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>4200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>4400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>7200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>8600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F60" s="3">
         <v>10400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>12900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>8800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>8100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>12100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>16100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>25700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>20300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>23800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>11400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>10000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>10000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>11400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>12700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>17300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>23900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>8000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>11500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>7800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>19300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>5800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>5700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>8300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>9800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F61" s="3">
         <v>7400</v>
-      </c>
-      <c r="E61" s="3">
-        <v>7300</v>
-      </c>
-      <c r="F61" s="3">
-        <v>7300</v>
       </c>
       <c r="G61" s="3">
         <v>7300</v>
       </c>
       <c r="H61" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I61" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J61" s="3">
         <v>7200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>6800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>6700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>6700</v>
-      </c>
-      <c r="L61" s="3">
-        <v>6600</v>
-      </c>
-      <c r="M61" s="3">
-        <v>6600</v>
       </c>
       <c r="N61" s="3">
         <v>6600</v>
@@ -4692,54 +4978,60 @@
         <v>6600</v>
       </c>
       <c r="P61" s="3">
+        <v>6600</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>6600</v>
+      </c>
+      <c r="R61" s="3">
         <v>6000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>5700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>5300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>5000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>2000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>1400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>2400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>1600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>4800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>1000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E62" s="3">
         <v>600</v>
@@ -4748,76 +5040,82 @@
         <v>600</v>
       </c>
       <c r="G62" s="3">
+        <v>600</v>
+      </c>
+      <c r="H62" s="3">
+        <v>600</v>
+      </c>
+      <c r="I62" s="3">
         <v>700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>700</v>
-      </c>
-      <c r="I62" s="3">
-        <v>200</v>
-      </c>
-      <c r="J62" s="3">
-        <v>200</v>
       </c>
       <c r="K62" s="3">
         <v>200</v>
       </c>
       <c r="L62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N62" s="3">
         <v>300</v>
       </c>
       <c r="O62" s="3">
+        <v>300</v>
+      </c>
+      <c r="P62" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q62" s="3">
         <v>400</v>
       </c>
-      <c r="P62" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>100</v>
-      </c>
       <c r="R62" s="3">
+        <v>100</v>
+      </c>
+      <c r="S62" s="3">
+        <v>100</v>
+      </c>
+      <c r="T62" s="3">
         <v>400</v>
       </c>
-      <c r="S62" s="3" t="s">
+      <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T62" s="3" t="s">
+      <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>8400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>9600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>10800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>13000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>8400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>9000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>12700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>10900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F66" s="3">
         <v>16500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>18900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>11500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>14800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>14200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>17400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>21500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>31200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>25700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>29300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>16900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>15600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>14800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>16000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>17200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>21100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>24900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>17200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>21600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>20300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>33000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>18200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>14700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>20800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>21100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-38100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-39900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-32500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-35600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-34500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-36600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-40600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-49700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-44200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-47600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-34200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-32800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-32100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-31000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-31800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-35700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-39900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-32800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-33400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-32000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-44700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-30400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-26800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-32800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-29800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-10900</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-15600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-18000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-10600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-13700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-12600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-15200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-19200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-28900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-23400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-26800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-14200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-12800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-13300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-14100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-18000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-22300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-14300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-20200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-18800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-31600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-16300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-13000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-19000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-20400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-7400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>4000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>9200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-5500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>3400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-13400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>3900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>4200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-7100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>12800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-17300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>3000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-3000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-18900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6244,10 +6642,10 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
@@ -6271,10 +6669,10 @@
         <v>100</v>
       </c>
       <c r="V83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
@@ -6294,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,43 +7137,49 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
@@ -6754,46 +7188,52 @@
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>-200</v>
       </c>
       <c r="T89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="X89" s="3">
-        <v>-500</v>
       </c>
       <c r="Y89" s="3">
         <v>-400</v>
       </c>
       <c r="Z89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6883,7 +7325,7 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6892,22 +7334,28 @@
         <v>-100</v>
       </c>
       <c r="Y91" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="Z91" s="3">
         <v>-100</v>
       </c>
       <c r="AA91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-100</v>
       </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
       <c r="AC91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,16 +7526,22 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -7090,29 +7550,29 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>1300</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -7132,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -7141,22 +7601,28 @@
         <v>-100</v>
       </c>
       <c r="Y94" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="Z94" s="3">
         <v>-100</v>
       </c>
       <c r="AA94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-100</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
-      </c>
       <c r="AC94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,49 +8004,55 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-200</v>
-      </c>
-      <c r="I100" s="3">
-        <v>200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>200</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
@@ -7569,40 +8061,46 @@
         <v>200</v>
       </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
       <c r="U100" s="3">
+        <v>200</v>
+      </c>
+      <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
         <v>700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>2200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>1700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7624,11 +8122,11 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
@@ -7642,11 +8140,11 @@
       <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -7684,32 +8182,38 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -7726,45 +8230,51 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>900</v>
       </c>
-      <c r="AB102" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE102" s="3">
         <v>-100</v>
       </c>
     </row>
